--- a/base_roteiro_entrevistas.xlsx
+++ b/base_roteiro_entrevistas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Educação_Ambiental_UFPA_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Educação_Ambiental_UFPA_2025\Projeto_Desperdicio_Agua\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>Thiago Barbosa</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nE1tnvMY-i0</t>
   </si>
 </sst>
 </file>
@@ -675,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1108,11 +1105,6 @@
       </c>
       <c r="H16" s="14" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
